--- a/src/resources/Test.xlsx
+++ b/src/resources/Test.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC0A1747-05A1-44E4-AB53-3CF3D833E4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://endava-my.sharepoint.com/personal/gheorghii_mosin_endava_com/Documents/Desktop/GIT/SecretSanta/src/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{BC0A1747-05A1-44E4-AB53-3CF3D833E4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{016975E9-352D-4C4B-8629-4E46D8965599}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>eME_CzC3i06YQ-gSWSN7d0c6r-SfxfFJkVrOnjlWzr9UQjczOFFDNFBaUkJDVzlHMEtVRElRQ0JTTy4u</t>
   </si>
@@ -70,6 +75,15 @@
   </si>
   <si>
     <t>George</t>
+  </si>
+  <si>
+    <t>JohnyBoy@endava.com</t>
+  </si>
+  <si>
+    <t>John Cena</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
 </sst>
 </file>
@@ -79,10 +93,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,15 +127,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -455,9 +480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -469,19 +494,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -493,16 +518,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE36F28-F888-455D-9DC9-4A9402144FAC}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -522,7 +549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -542,10 +569,53 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44785.624513888892</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44785.624583333331</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44785.624513888892</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44785.624583333331</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{44F8AC2E-AA90-4698-A20E-DD20935B8F67}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>